--- a/参考文献整理.xlsx
+++ b/参考文献整理.xlsx
@@ -1,103 +1,153 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2150" windowHeight="0"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="95">
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>年份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>会议/期刊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>文献名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
   </si>
   <si>
     <t>摘要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STICCER: Fast and Effective Database Test Suite Reduction Through Merging of Similar Test Cases</t>
-  </si>
-  <si>
-    <t>关键字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>削减 数据库 相似计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对自动生成的SQL测试语句，根据相似度计算，减少相似的测试用例。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参考文献格式</t>
+  </si>
+  <si>
+    <t>ase</t>
+  </si>
+  <si>
+    <t>Rostra: A Framework for Detecting Redundant Object-Oriented Unit Tests</t>
+  </si>
+  <si>
+    <t>测试用例冗余度量</t>
+  </si>
+  <si>
+    <t>提出一种框架，用于判断测试用例是否冗余。
+根据测试用例中的方法调用序列，以及调用之后的Ojbect是否相同，来判断测试用例的相似性。</t>
+  </si>
+  <si>
+    <t>测试用例削减 冗余检测（单元测试代码的冗余）</t>
+  </si>
+  <si>
+    <t>基于function()调用之后，object的变化情况，使用equals()方法计算相似性，判断一条Test Case中的哪些语句是冗余的。
+对Test Suite进行削减，只保留不含冗余因素的Test Case。</t>
+  </si>
+  <si>
+    <t>Xie T , Marinov D , Notkin D . Rostra: a framework for detecting redundant object-oriented unit tests[J]. Proc Ase, 1938:196--205.</t>
+  </si>
+  <si>
+    <t>Adaptive Random Test Case Prioritization</t>
+  </si>
+  <si>
+    <t>测试用例排序</t>
+  </si>
+  <si>
+    <t>An Empirical Investigation into the Nature of Test Smells</t>
+  </si>
+  <si>
+    <t>test smell</t>
+  </si>
+  <si>
+    <t>Tufano M , Palomba F , Bavota G , et al. An empirical investigation into the nature of test smells[C]// IEEE/ACM International Conference on Automated Software Engineering. IEEE, 2016:4-15.</t>
+  </si>
+  <si>
+    <t>fse</t>
+  </si>
+  <si>
+    <t>FACTS: Automated Black-Box Testing of FinTech Systems</t>
+  </si>
+  <si>
+    <t>FACTS</t>
+  </si>
+  <si>
+    <t>Wang Q , Gu L , Xue M , et al. FACTS: automated black-box testing of FinTech systems[C]// the 2018 26th ACM Joint Meeting. ACM, 2018.</t>
+  </si>
+  <si>
+    <t>FinExpert: Domain-Specific Test Generation for FinTech Systems</t>
+  </si>
+  <si>
+    <t>FinExpert</t>
+  </si>
+  <si>
+    <t>Jin T , Wang Q , Xu L , et al. FinExpert: domain-specific test generation for FinTech systems[C]// the 2019 27th ACM Joint Meeting. ACM, 2019.</t>
   </si>
   <si>
     <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINTS: A General Framework and Tool for Supporting Test-suite Minimization</t>
+  </si>
+  <si>
+    <t>测试用例最小化框架</t>
+  </si>
+  <si>
+    <t>使用整数线性规划的方式进行求解</t>
+  </si>
+  <si>
+    <t>Hsu H Y , Orso A . MINTS: A general framework and tool for supporting test-suite minimization[C]// IEEE International Conference on Software Engineering. IEEE, 2009.</t>
+  </si>
+  <si>
+    <t>Interaction-Based Test-Suite Minimization</t>
+  </si>
+  <si>
+    <t>测试用例削减 基于组合测试</t>
+  </si>
+  <si>
+    <t>Blue D , Segall I , Tzoref-Brill R , et al. Interaction-based test-suite minimization[C]// International Conference on Software Engineering. IEEE, 2013.</t>
+  </si>
+  <si>
+    <t>Measuring Software Redundancy</t>
+  </si>
+  <si>
+    <t>代码冗余度量</t>
+  </si>
+  <si>
+    <t>根据程序执行时的状态变化（状态），计算相似度，判断代码片段是否一致。
+实验部分使用了相似代码，计算相似度，判断计算结果是否接近100%。</t>
+  </si>
+  <si>
+    <t>Comparing White-box and Black-box Test Prioritization</t>
+  </si>
+  <si>
+    <t>测试用例排序 多种黑盒/白盒指标的比较试验</t>
   </si>
   <si>
     <t>Practical Selective Regression Testing with Effective Redundancy in Interleaved Tests</t>
   </si>
   <si>
     <t>回归测试 测试选择 思科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分支覆盖 branch coverage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Procedures for reducing the size of coverage-based test sets.</t>
-  </si>
-  <si>
-    <t>Chianti: A Tool for Change Impact Analysis of Java Programs.</t>
-  </si>
-  <si>
-    <t>行覆盖 statement coverage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究发现，基于覆盖率的测试冗余度量方式，不能得到较好的效果。</t>
-  </si>
-  <si>
-    <t>icst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用Base冗余指标进行实验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Redundancy Measurement Based on Coverage Information: Evaluations and Lessons Learned</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将测试用例分为"冗余“、“部分冗余”和“不冗余”三类。
+“冗余”指被其他测试用例包含；“部分冗余“指和其他用例有交集；“不冗余”指和其他用例无交集。
+根据是否发现新的fault，将“部分冗余”分为“有效”和“无效”两类。剔除不冗余和无效的部分冗余的测试用例，从而进行测试用例削减。</t>
   </si>
   <si>
     <t>1）随着软件系统的更新迭代，其测试用例数量往往会增加，测试套件会逐渐变得庞大。
@@ -107,338 +157,176 @@
 5）154页：冗余的定义、导致测试冗余的常见原因。
 6）根据case之间的相互关系来分类，totally redundant指包含关系，partly redundant指部分相交关系，unique指不相交关系。
 7）related work部分，介绍了使用到测试冗余的minimization技术。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考文献格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Dusica Marijan,Marius Liaaen. Practical selective regression testing with effective redundancy in interleaved tests[C]// 40th International Conference on Software Engineering: Software Engineering in Practice Track (ICSE-SEIP 2018). 2018.</t>
   </si>
   <si>
+    <t>FAST Approaches to Scalable Similarity-based Test Case Prioritization</t>
+  </si>
+  <si>
+    <t>测试用例排序 用例相似性计算</t>
+  </si>
+  <si>
+    <t>针对测试用例非常多的情况，使用big data domain的算法，对测试用例的排序进行加速。使用了Minhash和Locality-Sensitive Hashing两种算法。</t>
+  </si>
+  <si>
+    <t>Miranda B , Cruciani E , Verdecchia R , et al. FAST Approaches to Scalable Similarity-Based Test Case Prioritization[C]// 2018 IEEE/ACM 40th International Conference on Software Engineering (ICSE). IEEE Computer Society, 2018.</t>
+  </si>
+  <si>
+    <t>icst</t>
+  </si>
+  <si>
+    <t>Test Redundancy Measurement Based on Coverage Information: Evaluations and Lessons Learned</t>
+  </si>
+  <si>
+    <t>使用Base冗余指标进行实验</t>
+  </si>
+  <si>
+    <t>研究发现，基于覆盖率的测试冗余度量方式，不能得到较好的效果。</t>
+  </si>
+  <si>
     <t>Koochakzadeh N , Garousi V , Maurer F . Test Redundancy Measurement Based on Coverage Information: Evaluations and Lessons Learned[C]// International Conference on Software Testing Verification &amp; Validation. IEEE, 2009.</t>
   </si>
   <si>
+    <t>Multi-objective Test Suite Optimization for Incremental Product Family Testing</t>
+  </si>
+  <si>
+    <t>测试用例削减</t>
+  </si>
+  <si>
+    <t>Baller H , Lity S , Lochau M , et al. Multi-objective Test Suite Optimization for Incremental Product Family Testing[C]// IEEE Seventh International Conference on Software Testing. IEEE, 2014.</t>
+  </si>
+  <si>
+    <t>STICCER: Fast and Effective Database Test Suite Reduction Through Merging of Similar Test Cases</t>
+  </si>
+  <si>
+    <t>削减 数据库 相似计算</t>
+  </si>
+  <si>
+    <t>针对自动生成的SQL测试语句，根据相似度计算，减少相似的测试用例。</t>
+  </si>
+  <si>
+    <t>issre</t>
+  </si>
+  <si>
+    <t>An Empirical Study of JUnit Test-Suite Reduction</t>
+  </si>
+  <si>
+    <t>Zhang L , Marinov D , Zhang L , et al. An Empirical Study of JUnit Test-Suite Reduction[C]// IEEE International Symposium on Software Reliability Engineering. IEEE, 2011.</t>
+  </si>
+  <si>
+    <t>issta</t>
+  </si>
+  <si>
+    <t>FLOWER: Optimal Test Suite Reduction as a Network Maximum Flow</t>
+  </si>
+  <si>
+    <t>测试用例最小化技术</t>
+  </si>
+  <si>
+    <t>使用最优化方法进行求解</t>
+  </si>
+  <si>
+    <t>Gotlieb A , Marijan D . FLOWER: optimal test suite reduction as a network maximum flow[J]. 2014:171-180.</t>
+  </si>
+  <si>
+    <t>PIT: A Practical Mutation Testing Tool for Java</t>
+  </si>
+  <si>
+    <t>pitest工具</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henry Coles, Thomas Laurent, Christopher Henard, Mike Papadakis, and AnthonyVentresque. 2016. PIT: A Practical Mutation Testing Tool for Java (Demo). InProceedings of the 25th International Symposium on Software Testing and Analysis(ISSTA 2016). ACM, New York, NY, USA, 449–452. </t>
+  </si>
+  <si>
+    <t>sbst</t>
+  </si>
+  <si>
+    <t>On the Effect of Object Redundancy Elimination in Randomly</t>
+  </si>
+  <si>
+    <t>根据测试用例生成的Object来判断冗余</t>
+  </si>
+  <si>
     <t>Pablo P , Valeria B , Simón G B , et al. On the Effect of Object Redundancy Elimination in Randomly Testing Collection Classes[C]// 2018 IEEE/ACM 11th International Workshop on Search-Based Software Testing (SBST). IEEE Computer Society, 2018.</t>
   </si>
   <si>
-    <t>sbst</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>On the Effect of Object Redundancy Elimination in Randomly</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据测试用例生成的Object来判断冗余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>issta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLOWER: Optimal Test Suite Reduction as a Network Maximum Flow</t>
-  </si>
-  <si>
-    <t>测试用例最小化技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用最优化方法进行求解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gotlieb A , Marijan D . FLOWER: optimal test suite reduction as a network maximum flow[J]. 2014:171-180.</t>
-  </si>
-  <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MINTS: A General Framework and Tool for Supporting Test-suite Minimization</t>
-  </si>
-  <si>
-    <t>Hsu H Y , Orso A . MINTS: A general framework and tool for supporting test-suite minimization[C]// IEEE International Conference on Software Engineering. IEEE, 2009.</t>
-  </si>
-  <si>
-    <t>测试用例最小化框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>tse</t>
   </si>
   <si>
     <t>An Empirical Study of Test Case Filtering Techniques Based on Exercising Information Flows</t>
   </si>
   <si>
-    <t>tse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例最小化技术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Masri W , Podgurski A , Leon D . An Empirical Study of Test Case Filtering Techniques Based on Exercising Information Flows[J]. IEEE Transactions on Software Engineering, 2007, 33(7):454-477.</t>
   </si>
   <si>
-    <t>ase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Procedures for reducing the size of coverage-based test sets.</t>
+  </si>
+  <si>
+    <t>行覆盖 statement coverage</t>
   </si>
   <si>
     <t>Refactoring: improving the design of existing code</t>
   </si>
   <si>
     <t>code smell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>An Empirical Investigation into the Nature of Test Smells</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tufano M , Palomba F , Bavota G , et al. An empirical investigation into the nature of test smells[C]// IEEE/ACM International Conference on Automated Software Engineering. IEEE, 2016:4-15.</t>
-  </si>
-  <si>
-    <t>test smell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chianti: A Tool for Change Impact Analysis of Java Programs.</t>
+  </si>
+  <si>
+    <t>分支覆盖 branch coverage</t>
+  </si>
+  <si>
+    <t>Test suite reduction with selective redundancy</t>
+  </si>
+  <si>
+    <t>Jeffrey D , Gupta N . Test suite reduction with selective redundancy[C]// Software Maintenance, 2005. ICSM'05. Proceedings of the 21st IEEE International Conference on. IEEE, 2005.</t>
+  </si>
+  <si>
+    <t>Redundancy Based Test-suite Reduction</t>
+  </si>
+  <si>
+    <t>Fraser G , Wotawa F . Redundancy Based Test-Suite Reduction[J]. 2007.</t>
+  </si>
+  <si>
+    <t>Improving Fault Detection Capability by Selectively Retaining Test Cases During Test Suite Reduction</t>
+  </si>
+  <si>
+    <t>Jeffrey D , Gupta N . Improving Fault Detection Capability by Selectively Retaining Test Cases during Test Suite Reduction[J]. IEEE Transactions on Software Engineering, 2007, 33:108-123.</t>
+  </si>
+  <si>
+    <t>An empirical analysis of the distribution of unit test smells and their impact on software maintenance</t>
   </si>
   <si>
     <t>Bavota G , Qusef A , Oliveto R , et al. An empirical analysis of the distribution of unit test smells and their impact on software maintenance[C]// ICSM. IEEE Computer Society, 2012.</t>
   </si>
   <si>
-    <t>An empirical analysis of the distribution of unit test smells and their impact on software maintenance</t>
-  </si>
-  <si>
-    <t>FACTS: Automated Black-Box Testing of FinTech Systems</t>
-  </si>
-  <si>
-    <t>fse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang Q , Gu L , Xue M , et al. FACTS: automated black-box testing of FinTech systems[C]// the 2018 26th ACM Joint Meeting. ACM, 2018.</t>
-  </si>
-  <si>
-    <t>FACTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jin T , Wang Q , Xu L , et al. FinExpert: domain-specific test generation for FinTech systems[C]// the 2019 27th ACM Joint Meeting. ACM, 2019.</t>
-  </si>
-  <si>
-    <t>FinExpert: Domain-Specific Test Generation for FinTech Systems</t>
-  </si>
-  <si>
-    <t>fse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FinExpert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>issre</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>An Empirical Study of JUnit Test-Suite Reduction</t>
-  </si>
-  <si>
-    <t>测试用例削减</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhang L , Marinov D , Zhang L , et al. An Empirical Study of JUnit Test-Suite Reduction[C]// IEEE International Symposium on Software Reliability Engineering. IEEE, 2011.</t>
-  </si>
-  <si>
-    <t>Multi-objective Test Suite Optimization for Incremental Product Family Testing</t>
-  </si>
-  <si>
-    <t>Baller H , Lity S , Lochau M , et al. Multi-objective Test Suite Optimization for Incremental Product Family Testing[C]// IEEE Seventh International Conference on Software Testing. IEEE, 2014.</t>
-  </si>
-  <si>
-    <t>Redundancy Based Test-suite Reduction</t>
-  </si>
-  <si>
-    <t>Fraser G , Wotawa F . Redundancy Based Test-Suite Reduction[J]. 2007.</t>
-  </si>
-  <si>
-    <t>Jeffrey D , Gupta N . Improving Fault Detection Capability by Selectively Retaining Test Cases during Test Suite Reduction[J]. IEEE Transactions on Software Engineering, 2007, 33:108-123.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test suite reduction with selective redundancy</t>
-  </si>
-  <si>
-    <t>Jeffrey D , Gupta N . Test suite reduction with selective redundancy[C]// Software Maintenance, 2005. ICSM'05. Proceedings of the 21st IEEE International Conference on. IEEE, 2005.</t>
-  </si>
-  <si>
-    <t>将测试用例分为"冗余“、“部分冗余”和“不冗余”三类。
-“冗余”指被其他测试用例包含；“部分冗余“指和其他用例有交集；“不冗余”指和其他用例无交集。
-根据是否发现新的fault，将“部分冗余”分为“有效”和“无效”两类。剔除不冗余和无效的部分冗余的测试用例，从而进行测试用例削减。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码冗余度量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根据程序执行时的状态变化（状态），计算相似度，判断代码片段是否一致。
-实验部分使用了相似代码，计算相似度，判断计算结果是否接近100%。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Rostra: A Framework for Detecting Redundant Object-Oriented Unit Tests</t>
-  </si>
-  <si>
-    <t>ase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提出一种框架，用于判断测试用例是否冗余。
-根据测试用例中的方法调用序列，以及调用之后的Ojbect是否相同，来判断测试用例的相似性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FAST Approaches to Scalable Similarity-based Test Case Prioritization</t>
-  </si>
-  <si>
-    <t>测试用例冗余度量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例排序 用例相似性计算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对测试用例非常多的情况，使用big data domain的算法，对测试用例的排序进行加速。使用了Minhash和Locality-Sensitive Hashing两种算法。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comparing White-box and Black-box Test Prioritization</t>
-  </si>
-  <si>
-    <t>测试用例排序 多种黑盒/白盒指标的比较试验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adaptive Random Test Case Prioritization</t>
-  </si>
-  <si>
-    <t>ase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interaction-Based Test-Suite Minimization</t>
-  </si>
-  <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用例削减 基于组合测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Miranda B , Cruciani E , Verdecchia R , et al. FAST Approaches to Scalable Similarity-Based Test Case Prioritization[C]// 2018 IEEE/ACM 40th International Conference on Software Engineering (ICSE). IEEE Computer Society, 2018.</t>
-  </si>
-  <si>
-    <t>Blue D , Segall I , Tzoref-Brill R , et al. Interaction-based test-suite minimization[C]// International Conference on Software Engineering. IEEE, 2013.</t>
-  </si>
-  <si>
-    <t>ase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Xie T , Marinov D , Notkin D . Rostra: a framework for detecting redundant object-oriented unit tests[J]. Proc Ase, 1938:196--205.</t>
-  </si>
-  <si>
-    <t>测试用例削减 冗余检测（单元测试代码的冗余）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基于function()调用之后，object的变化情况，使用equals()方法计算相似性，判断一条Test Case中的哪些语句是冗余的。
-对Test Suite进行削减，只保留不含冗余因素的Test Case。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Improving Fault Detection Capability by Selectively Retaining Test Cases During Test Suite Reduction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PIT: A Practical Mutation Testing Tool for Java</t>
-  </si>
-  <si>
-    <t>issta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Henry Coles, Thomas Laurent, Christopher Henard, Mike Papadakis, and AnthonyVentresque. 2016. PIT: A Practical Mutation Testing Tool for Java (Demo). InProceedings of the 25th International Symposium on Software Testing and Analysis(ISSTA 2016). ACM, New York, NY, USA, 449–452. </t>
-  </si>
-  <si>
-    <t>pitest工具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用整数线性规划的方式进行求解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Measuring Software Redundancy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Fine-Grained Test Minimization</t>
   </si>
   <si>
-    <t>icse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试用例削减 测试代码层面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>查找存在部分冗余的测试用例，将测试用例的代码进行削减、重排。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -446,19 +334,349 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -466,37 +684,323 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -545,7 +1049,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -580,7 +1084,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -754,58 +1258,53 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
+    <col min="4" max="4" width="37.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="18.75" customWidth="1"/>
     <col min="6" max="6" width="40.25" customWidth="1"/>
     <col min="7" max="7" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" ht="71.25" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -813,19 +1312,19 @@
         <v>2004</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="70" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="85.5" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -833,22 +1332,22 @@
         <v>2004</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -856,16 +1355,16 @@
         <v>2009</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:8">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -873,21 +1372,21 @@
         <v>2016</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:8">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -895,21 +1394,21 @@
         <v>2018</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:8">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -917,21 +1416,21 @@
         <v>2019</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" ht="28.5" customHeight="1" spans="1:8">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -939,23 +1438,23 @@
         <v>2009</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -963,19 +1462,19 @@
         <v>2013</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" ht="57" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -983,19 +1482,19 @@
         <v>2015</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1003,16 +1502,16 @@
         <v>2016</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="322" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="327.75" spans="1:8">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1020,25 +1519,25 @@
         <v>2018</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1046,22 +1545,22 @@
         <v>2018</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>77</v>
+        <v>27</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="G13" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" spans="1:8">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1069,23 +1568,23 @@
         <v>2009</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
+        <v>49</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" ht="28.5" spans="1:8">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1093,21 +1592,21 @@
         <v>2014</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" spans="1:7">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1115,20 +1614,20 @@
         <v>2020</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1136,21 +1635,21 @@
         <v>2011</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" ht="28.5" spans="1:8">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1158,23 +1657,23 @@
         <v>2014</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1182,39 +1681,39 @@
         <v>2016</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" ht="28.5" spans="1:8">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="H20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="42.75" spans="1:8">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1222,21 +1721,21 @@
         <v>2007</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5" spans="1:7">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1245,15 +1744,15 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5" spans="1:7">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1262,15 +1761,15 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="24" ht="28.5" spans="1:7">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1279,15 +1778,15 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1295,13 +1794,13 @@
         <v>2005</v>
       </c>
       <c r="D25" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1309,16 +1808,16 @@
         <v>2007</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1326,16 +1825,16 @@
         <v>2007</v>
       </c>
       <c r="D27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" ht="42.75" spans="1:8">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1344,18 +1843,18 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1363,34 +1862,34 @@
         <v>2019</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1400,8 +1899,8 @@
     <sortCondition ref="C2:C28"/>
     <sortCondition ref="B2:B28"/>
   </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>